--- a/chamada.xlsx
+++ b/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3FA80-964D-4882-AAB5-27C41690ABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D4BE6-9182-4819-B658-F233C85B9454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="956">
   <si>
     <t>*</t>
   </si>
@@ -2974,6 +2974,27 @@
   </si>
   <si>
     <t>26/05/2024</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>MANHA</t>
+  </si>
+  <si>
+    <t>Gabriel Teste</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Gabriel Teste 2</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -5372,10 +5393,10 @@
   <dimension ref="A1:AO1206"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C530" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Z344" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D553" sqref="D553"/>
+      <selection pane="bottomRight" activeCell="AN375" sqref="AN375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -26167,7 +26188,9 @@
       <c r="F296" s="41"/>
       <c r="G296" s="41"/>
       <c r="H296" s="41"/>
-      <c r="I296" s="41"/>
+      <c r="I296" s="41">
+        <v>0</v>
+      </c>
       <c r="J296" s="41"/>
       <c r="K296" s="41"/>
       <c r="L296" s="41"/>
@@ -26175,8 +26198,12 @@
       <c r="N296" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="O296" s="41"/>
-      <c r="P296" s="41"/>
+      <c r="O296" s="41" t="s">
+        <v>948</v>
+      </c>
+      <c r="P296" s="41" t="s">
+        <v>940</v>
+      </c>
       <c r="Q296" s="41" t="s">
         <v>40</v>
       </c>
@@ -31602,8 +31629,12 @@
       <c r="N380" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="O380" s="41"/>
-      <c r="P380" s="41"/>
+      <c r="O380" s="41" t="s">
+        <v>948</v>
+      </c>
+      <c r="P380" s="41" t="s">
+        <v>940</v>
+      </c>
       <c r="Q380" s="41" t="s">
         <v>40</v>
       </c>
@@ -35026,7 +35057,9 @@
       <c r="AK431" s="80"/>
       <c r="AL431" s="80"/>
       <c r="AM431" s="80"/>
-      <c r="AN431" s="80"/>
+      <c r="AN431" s="80" t="s">
+        <v>949</v>
+      </c>
       <c r="AO431" s="80"/>
     </row>
     <row r="432" spans="1:41" ht="12.75">
@@ -37738,7 +37771,9 @@
       <c r="F474" s="41"/>
       <c r="G474" s="41"/>
       <c r="H474" s="41"/>
-      <c r="I474" s="58"/>
+      <c r="I474" s="58">
+        <v>0</v>
+      </c>
       <c r="J474" s="41"/>
       <c r="K474" s="41"/>
       <c r="L474" s="41"/>
@@ -37746,8 +37781,12 @@
       <c r="N474" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="O474" s="226"/>
-      <c r="P474" s="226"/>
+      <c r="O474" s="226" t="s">
+        <v>948</v>
+      </c>
+      <c r="P474" s="226" t="s">
+        <v>940</v>
+      </c>
       <c r="Q474" s="41" t="s">
         <v>40</v>
       </c>
@@ -39183,7 +39222,7 @@
         <v>5521999760641</v>
       </c>
       <c r="D499" s="316" t="s">
-        <v>433</v>
+        <v>833</v>
       </c>
       <c r="E499" s="35" t="s">
         <v>830</v>
@@ -39205,7 +39244,7 @@
         <v>948</v>
       </c>
       <c r="P499" s="164" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="Q499" s="32" t="s">
         <v>40</v>
@@ -42131,20 +42170,31 @@
     </row>
     <row r="549" spans="1:41" ht="12.75">
       <c r="A549" s="7"/>
-      <c r="B549" s="447"/>
+      <c r="B549" s="447" t="s">
+        <v>951</v>
+      </c>
       <c r="C549" s="448"/>
-      <c r="D549" s="322"/>
+      <c r="D549" s="322" t="s">
+        <v>833</v>
+      </c>
       <c r="E549" s="448"/>
       <c r="F549" s="448"/>
       <c r="G549" s="448"/>
       <c r="H549" s="448"/>
+      <c r="I549">
+        <v>1</v>
+      </c>
       <c r="J549" s="7"/>
       <c r="K549" s="7"/>
       <c r="L549" s="7"/>
       <c r="M549" s="7"/>
       <c r="N549" s="7"/>
-      <c r="O549" s="7"/>
-      <c r="P549" s="7"/>
+      <c r="O549" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="P549" s="7" t="s">
+        <v>950</v>
+      </c>
       <c r="Q549" s="7"/>
       <c r="R549" s="7"/>
       <c r="S549" s="7"/>
@@ -42168,25 +42218,38 @@
       <c r="AK549" s="79"/>
       <c r="AL549" s="80"/>
       <c r="AM549" s="80"/>
-      <c r="AN549" s="80"/>
+      <c r="AN549" s="80" t="s">
+        <v>953</v>
+      </c>
       <c r="AO549" s="80"/>
     </row>
     <row r="550" spans="1:41" ht="12.75">
       <c r="A550" s="73"/>
-      <c r="B550" s="458"/>
+      <c r="B550" s="458" t="s">
+        <v>954</v>
+      </c>
       <c r="C550" s="389"/>
-      <c r="D550" s="356"/>
+      <c r="D550" s="356" t="s">
+        <v>833</v>
+      </c>
       <c r="E550" s="389"/>
       <c r="F550" s="389"/>
       <c r="G550" s="389"/>
       <c r="H550" s="389"/>
+      <c r="I550">
+        <v>1</v>
+      </c>
       <c r="J550" s="73"/>
       <c r="K550" s="73"/>
       <c r="L550" s="73"/>
       <c r="M550" s="73"/>
       <c r="N550" s="73"/>
-      <c r="O550" s="73"/>
-      <c r="P550" s="73"/>
+      <c r="O550" s="73" t="s">
+        <v>952</v>
+      </c>
+      <c r="P550" s="73" t="s">
+        <v>950</v>
+      </c>
       <c r="Q550" s="73"/>
       <c r="R550" s="73"/>
       <c r="S550" s="73"/>
@@ -42210,7 +42273,9 @@
       <c r="AK550" s="79"/>
       <c r="AL550" s="80"/>
       <c r="AM550" s="80"/>
-      <c r="AN550" s="80"/>
+      <c r="AN550" s="80" t="s">
+        <v>955</v>
+      </c>
       <c r="AO550" s="80"/>
     </row>
     <row r="551" spans="1:41" ht="12.75">
@@ -64282,7 +64347,7 @@
   <customSheetViews>
     <customSheetView guid="{600C0311-0D8F-4557-97B9-4A8E357FB92E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A3:AI750" xr:uid="{B6146643-D4CC-42F8-A934-C2431E40D341}">
+      <autoFilter ref="A3:AI750" xr:uid="{BC6D60BD-86D5-4B00-A71E-4704145E4712}">
         <filterColumn colId="11">
           <filters blank="1">
             <filter val="17/03"/>

--- a/chamada.xlsx
+++ b/chamada.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D4BE6-9182-4819-B658-F233C85B9454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195468E8-F59C-4FE9-9D50-9868D57A6EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHAMADA GERAL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_600C0311_0D8F_4557_97B9_4A8E357FB92E_.wvu.FilterData" localSheetId="0" hidden="1">'CHAMADA GERAL'!$A$3:$AI$749</definedName>
+    <definedName name="Z_600C0311_0D8F_4557_97B9_4A8E357FB92E_.wvu.FilterData" localSheetId="0" hidden="1">'CHAMADA GERAL'!$A$3:$AI$747</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4062" uniqueCount="951">
   <si>
     <t>*</t>
   </si>
@@ -2980,21 +2980,6 @@
   </si>
   <si>
     <t>MANHA</t>
-  </si>
-  <si>
-    <t>Gabriel Teste</t>
-  </si>
-  <si>
-    <t>27/05/2024</t>
-  </si>
-  <si>
-    <t>Gabriela</t>
-  </si>
-  <si>
-    <t>Gabriel Teste 2</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
 </sst>
 </file>
@@ -5390,13 +5375,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO1206"/>
+  <dimension ref="A1:AO1204"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Z344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Z528" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN375" sqref="AN375"/>
+      <selection pane="bottomRight" activeCell="B552" sqref="B552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -42170,31 +42155,20 @@
     </row>
     <row r="549" spans="1:41" ht="12.75">
       <c r="A549" s="7"/>
-      <c r="B549" s="447" t="s">
-        <v>951</v>
-      </c>
+      <c r="B549" s="447"/>
       <c r="C549" s="448"/>
-      <c r="D549" s="322" t="s">
-        <v>833</v>
-      </c>
+      <c r="D549" s="322"/>
       <c r="E549" s="448"/>
       <c r="F549" s="448"/>
       <c r="G549" s="448"/>
       <c r="H549" s="448"/>
-      <c r="I549">
-        <v>1</v>
-      </c>
       <c r="J549" s="7"/>
       <c r="K549" s="7"/>
       <c r="L549" s="7"/>
       <c r="M549" s="7"/>
       <c r="N549" s="7"/>
-      <c r="O549" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="P549" s="7" t="s">
-        <v>950</v>
-      </c>
+      <c r="O549" s="7"/>
+      <c r="P549" s="7"/>
       <c r="Q549" s="7"/>
       <c r="R549" s="7"/>
       <c r="S549" s="7"/>
@@ -42218,38 +42192,25 @@
       <c r="AK549" s="79"/>
       <c r="AL549" s="80"/>
       <c r="AM549" s="80"/>
-      <c r="AN549" s="80" t="s">
-        <v>953</v>
-      </c>
+      <c r="AN549" s="80"/>
       <c r="AO549" s="80"/>
     </row>
     <row r="550" spans="1:41" ht="12.75">
       <c r="A550" s="73"/>
-      <c r="B550" s="458" t="s">
-        <v>954</v>
-      </c>
+      <c r="B550" s="458"/>
       <c r="C550" s="389"/>
-      <c r="D550" s="356" t="s">
-        <v>833</v>
-      </c>
+      <c r="D550" s="356"/>
       <c r="E550" s="389"/>
       <c r="F550" s="389"/>
       <c r="G550" s="389"/>
       <c r="H550" s="389"/>
-      <c r="I550">
-        <v>1</v>
-      </c>
       <c r="J550" s="73"/>
       <c r="K550" s="73"/>
       <c r="L550" s="73"/>
       <c r="M550" s="73"/>
       <c r="N550" s="73"/>
-      <c r="O550" s="73" t="s">
-        <v>952</v>
-      </c>
-      <c r="P550" s="73" t="s">
-        <v>950</v>
-      </c>
+      <c r="O550" s="73"/>
+      <c r="P550" s="73"/>
       <c r="Q550" s="73"/>
       <c r="R550" s="73"/>
       <c r="S550" s="73"/>
@@ -42273,9 +42234,7 @@
       <c r="AK550" s="79"/>
       <c r="AL550" s="80"/>
       <c r="AM550" s="80"/>
-      <c r="AN550" s="80" t="s">
-        <v>955</v>
-      </c>
+      <c r="AN550" s="80"/>
       <c r="AO550" s="80"/>
     </row>
     <row r="551" spans="1:41" ht="12.75">
@@ -42357,10 +42316,10 @@
       <c r="AI552" s="400"/>
       <c r="AJ552" s="79"/>
       <c r="AK552" s="79"/>
-      <c r="AL552" s="80"/>
-      <c r="AM552" s="80"/>
-      <c r="AN552" s="80"/>
-      <c r="AO552" s="80"/>
+      <c r="AL552" s="79"/>
+      <c r="AM552" s="79"/>
+      <c r="AN552" s="79"/>
+      <c r="AO552" s="79"/>
     </row>
     <row r="553" spans="1:41" ht="12.75">
       <c r="A553" s="7"/>
@@ -42399,10 +42358,10 @@
       <c r="AI553" s="9"/>
       <c r="AJ553" s="79"/>
       <c r="AK553" s="79"/>
-      <c r="AL553" s="80"/>
-      <c r="AM553" s="80"/>
-      <c r="AN553" s="80"/>
-      <c r="AO553" s="80"/>
+      <c r="AL553" s="79"/>
+      <c r="AM553" s="79"/>
+      <c r="AN553" s="79"/>
+      <c r="AO553" s="79"/>
     </row>
     <row r="554" spans="1:41" ht="12.75">
       <c r="A554" s="73"/>
@@ -50553,40 +50512,29 @@
       <c r="AO747" s="79"/>
     </row>
     <row r="748" spans="1:41" ht="12.75">
-      <c r="A748" s="73"/>
-      <c r="B748" s="458"/>
-      <c r="C748" s="389"/>
-      <c r="D748" s="356"/>
-      <c r="E748" s="389"/>
-      <c r="F748" s="389"/>
-      <c r="G748" s="389"/>
-      <c r="H748" s="389"/>
-      <c r="J748" s="73"/>
-      <c r="K748" s="73"/>
-      <c r="L748" s="73"/>
-      <c r="M748" s="73"/>
-      <c r="N748" s="73"/>
-      <c r="O748" s="73"/>
-      <c r="P748" s="73"/>
-      <c r="Q748" s="73"/>
-      <c r="R748" s="73"/>
-      <c r="S748" s="73"/>
-      <c r="T748" s="73"/>
-      <c r="U748" s="73"/>
-      <c r="V748" s="73"/>
-      <c r="W748" s="400"/>
-      <c r="X748" s="400"/>
-      <c r="Y748" s="400"/>
-      <c r="Z748" s="400"/>
-      <c r="AA748" s="459"/>
-      <c r="AB748" s="400"/>
-      <c r="AC748" s="400"/>
-      <c r="AD748" s="400"/>
-      <c r="AE748" s="400"/>
-      <c r="AF748" s="400"/>
-      <c r="AG748" s="400"/>
-      <c r="AH748" s="400"/>
-      <c r="AI748" s="400"/>
+      <c r="A748" s="79"/>
+      <c r="B748" s="460"/>
+      <c r="C748" s="79"/>
+      <c r="D748" s="461"/>
+      <c r="E748" s="79"/>
+      <c r="F748" s="79"/>
+      <c r="G748" s="79"/>
+      <c r="H748" s="7"/>
+      <c r="I748" s="7"/>
+      <c r="J748" s="79"/>
+      <c r="K748" s="79"/>
+      <c r="L748" s="79"/>
+      <c r="M748" s="79"/>
+      <c r="N748" s="79"/>
+      <c r="O748" s="79"/>
+      <c r="P748" s="7"/>
+      <c r="Q748" s="7"/>
+      <c r="R748" s="7"/>
+      <c r="S748" s="79"/>
+      <c r="T748" s="79"/>
+      <c r="U748" s="7"/>
+      <c r="V748" s="79"/>
+      <c r="AA748" s="460"/>
       <c r="AJ748" s="79"/>
       <c r="AK748" s="79"/>
       <c r="AL748" s="79"/>
@@ -50595,40 +50543,29 @@
       <c r="AO748" s="79"/>
     </row>
     <row r="749" spans="1:41" ht="12.75">
-      <c r="A749" s="7"/>
-      <c r="B749" s="447"/>
-      <c r="C749" s="448"/>
-      <c r="D749" s="322"/>
-      <c r="E749" s="448"/>
-      <c r="F749" s="448"/>
-      <c r="G749" s="448"/>
-      <c r="H749" s="448"/>
-      <c r="J749" s="7"/>
-      <c r="K749" s="7"/>
-      <c r="L749" s="7"/>
-      <c r="M749" s="7"/>
-      <c r="N749" s="7"/>
-      <c r="O749" s="7"/>
+      <c r="A749" s="79"/>
+      <c r="B749" s="460"/>
+      <c r="C749" s="79"/>
+      <c r="D749" s="461"/>
+      <c r="E749" s="79"/>
+      <c r="F749" s="79"/>
+      <c r="G749" s="79"/>
+      <c r="H749" s="7"/>
+      <c r="I749" s="7"/>
+      <c r="J749" s="79"/>
+      <c r="K749" s="79"/>
+      <c r="L749" s="79"/>
+      <c r="M749" s="79"/>
+      <c r="N749" s="79"/>
+      <c r="O749" s="79"/>
       <c r="P749" s="7"/>
       <c r="Q749" s="7"/>
       <c r="R749" s="7"/>
-      <c r="S749" s="7"/>
-      <c r="T749" s="7"/>
+      <c r="S749" s="79"/>
+      <c r="T749" s="79"/>
       <c r="U749" s="7"/>
-      <c r="V749" s="7"/>
-      <c r="W749" s="9"/>
-      <c r="X749" s="9"/>
-      <c r="Y749" s="9"/>
-      <c r="Z749" s="9"/>
-      <c r="AA749" s="10"/>
-      <c r="AB749" s="9"/>
-      <c r="AC749" s="9"/>
-      <c r="AD749" s="9"/>
-      <c r="AE749" s="9"/>
-      <c r="AF749" s="9"/>
-      <c r="AG749" s="9"/>
-      <c r="AH749" s="9"/>
-      <c r="AI749" s="9"/>
+      <c r="V749" s="79"/>
+      <c r="AA749" s="460"/>
       <c r="AJ749" s="79"/>
       <c r="AK749" s="79"/>
       <c r="AL749" s="79"/>
@@ -50855,7 +50792,6 @@
     </row>
     <row r="757" spans="1:41" ht="12.75">
       <c r="A757" s="79"/>
-      <c r="B757" s="460"/>
       <c r="C757" s="79"/>
       <c r="D757" s="461"/>
       <c r="E757" s="79"/>
@@ -50886,7 +50822,6 @@
     </row>
     <row r="758" spans="1:41" ht="12.75">
       <c r="A758" s="79"/>
-      <c r="B758" s="460"/>
       <c r="C758" s="79"/>
       <c r="D758" s="461"/>
       <c r="E758" s="79"/>
@@ -64268,25 +64203,13 @@
     <row r="1204" spans="1:41" ht="12.75">
       <c r="A1204" s="79"/>
       <c r="C1204" s="79"/>
-      <c r="D1204" s="461"/>
-      <c r="E1204" s="79"/>
-      <c r="F1204" s="79"/>
-      <c r="G1204" s="79"/>
-      <c r="H1204" s="7"/>
-      <c r="I1204" s="7"/>
-      <c r="J1204" s="79"/>
-      <c r="K1204" s="79"/>
-      <c r="L1204" s="79"/>
-      <c r="M1204" s="79"/>
-      <c r="N1204" s="79"/>
-      <c r="O1204" s="79"/>
-      <c r="P1204" s="7"/>
-      <c r="Q1204" s="7"/>
-      <c r="R1204" s="7"/>
+      <c r="D1204" s="79"/>
+      <c r="I1204" s="79"/>
+      <c r="P1204" s="79"/>
+      <c r="Q1204" s="79"/>
+      <c r="R1204" s="79"/>
       <c r="S1204" s="79"/>
       <c r="T1204" s="79"/>
-      <c r="U1204" s="7"/>
-      <c r="V1204" s="79"/>
       <c r="AA1204" s="460"/>
       <c r="AJ1204" s="79"/>
       <c r="AK1204" s="79"/>
@@ -64295,59 +64218,11 @@
       <c r="AN1204" s="79"/>
       <c r="AO1204" s="79"/>
     </row>
-    <row r="1205" spans="1:41" ht="12.75">
-      <c r="A1205" s="79"/>
-      <c r="C1205" s="79"/>
-      <c r="D1205" s="461"/>
-      <c r="E1205" s="79"/>
-      <c r="F1205" s="79"/>
-      <c r="G1205" s="79"/>
-      <c r="H1205" s="7"/>
-      <c r="I1205" s="7"/>
-      <c r="J1205" s="79"/>
-      <c r="K1205" s="79"/>
-      <c r="L1205" s="79"/>
-      <c r="M1205" s="79"/>
-      <c r="N1205" s="79"/>
-      <c r="O1205" s="79"/>
-      <c r="P1205" s="7"/>
-      <c r="Q1205" s="7"/>
-      <c r="R1205" s="7"/>
-      <c r="S1205" s="79"/>
-      <c r="T1205" s="79"/>
-      <c r="U1205" s="7"/>
-      <c r="V1205" s="79"/>
-      <c r="AA1205" s="460"/>
-      <c r="AJ1205" s="79"/>
-      <c r="AK1205" s="79"/>
-      <c r="AL1205" s="79"/>
-      <c r="AM1205" s="79"/>
-      <c r="AN1205" s="79"/>
-      <c r="AO1205" s="79"/>
-    </row>
-    <row r="1206" spans="1:41" ht="12.75">
-      <c r="A1206" s="79"/>
-      <c r="C1206" s="79"/>
-      <c r="D1206" s="79"/>
-      <c r="I1206" s="79"/>
-      <c r="P1206" s="79"/>
-      <c r="Q1206" s="79"/>
-      <c r="R1206" s="79"/>
-      <c r="S1206" s="79"/>
-      <c r="T1206" s="79"/>
-      <c r="AA1206" s="460"/>
-      <c r="AJ1206" s="79"/>
-      <c r="AK1206" s="79"/>
-      <c r="AL1206" s="79"/>
-      <c r="AM1206" s="79"/>
-      <c r="AN1206" s="79"/>
-      <c r="AO1206" s="79"/>
-    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{600C0311-0D8F-4557-97B9-4A8E357FB92E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A3:AI750" xr:uid="{BC6D60BD-86D5-4B00-A71E-4704145E4712}">
+      <autoFilter ref="A3:AI750" xr:uid="{63744D45-EF43-44A5-8173-2655B962DD98}">
         <filterColumn colId="11">
           <filters blank="1">
             <filter val="17/03"/>
